--- a/data/trans_orig/P6712-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>3809</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1015</v>
+        <v>947</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9487</v>
+        <v>9264</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0125789831897117</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003353620281873455</v>
+        <v>0.003126460926003089</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03133041379503611</v>
+        <v>0.03059280867327904</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7005</v>
+        <v>7177</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01059311024254415</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03640429837304893</v>
+        <v>0.03729620302021534</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -784,19 +784,19 @@
         <v>5847</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2061</v>
+        <v>2703</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11871</v>
+        <v>11862</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01180736437541288</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004161047832467559</v>
+        <v>0.005458224630394679</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02397111975992195</v>
+        <v>0.02395290836776808</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>4924</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1866</v>
+        <v>1908</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11200</v>
+        <v>11541</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01626292589444378</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006163092369600979</v>
+        <v>0.006301941639484259</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0369888141112519</v>
+        <v>0.03811431823894394</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10724</v>
+        <v>11856</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01540013138266724</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05573442297703737</v>
+        <v>0.06161304227807442</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -855,19 +855,19 @@
         <v>7888</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3050</v>
+        <v>3145</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15844</v>
+        <v>16346</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01592768366300591</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006158067975416928</v>
+        <v>0.006350233603117524</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0319931109050217</v>
+        <v>0.03300686295664508</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>24784</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16958</v>
+        <v>16172</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37362</v>
+        <v>37232</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08184829798961321</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05600349021843487</v>
+        <v>0.05340802788998378</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1233884152707059</v>
+        <v>0.1229567652722606</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -905,19 +905,19 @@
         <v>12082</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6277</v>
+        <v>6840</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20138</v>
+        <v>20144</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06278711077799823</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03262150624541884</v>
+        <v>0.03554593527346477</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1046538727748636</v>
+        <v>0.1046891867716072</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>34</v>
@@ -926,19 +926,19 @@
         <v>36865</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>25810</v>
+        <v>25716</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>50954</v>
+        <v>50104</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0744419980567136</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05211802534926751</v>
+        <v>0.05192828476210408</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1028909453159326</v>
+        <v>0.1011737857686003</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>62647</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50021</v>
+        <v>49366</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77890</v>
+        <v>77537</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2068891004782518</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1651919376215906</v>
+        <v>0.1630310542503307</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2572289131040899</v>
+        <v>0.2560630912642197</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -976,19 +976,19 @@
         <v>44164</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31744</v>
+        <v>33237</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58438</v>
+        <v>59033</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.229517895361278</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1649691645933382</v>
+        <v>0.1727294897064375</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3036986117941837</v>
+        <v>0.306792753278944</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -997,19 +997,19 @@
         <v>106811</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>88212</v>
+        <v>89293</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>126990</v>
+        <v>129247</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2156816085294623</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1781251912076942</v>
+        <v>0.1803073786054851</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2564294071762684</v>
+        <v>0.2609870919396949</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>206639</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>189447</v>
+        <v>190615</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>221846</v>
+        <v>222156</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6824206924479795</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6256438339688258</v>
+        <v>0.6295001403318634</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7326422623575993</v>
+        <v>0.7336645151517788</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>120</v>
@@ -1047,19 +1047,19 @@
         <v>131174</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>115960</v>
+        <v>116699</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>143369</v>
+        <v>143506</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6817017522355123</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6026345002098366</v>
+        <v>0.6064770875995851</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7450782587371307</v>
+        <v>0.7457935738462356</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>309</v>
@@ -1068,19 +1068,19 @@
         <v>337813</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>317313</v>
+        <v>316381</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>360566</v>
+        <v>360205</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6821413453754053</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6407454795915317</v>
+        <v>0.6388640796291595</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7280857020784628</v>
+        <v>0.7273585193141117</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>5823</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2025</v>
+        <v>1970</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12213</v>
+        <v>12203</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02261110823285647</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007864304934386857</v>
+        <v>0.007648722393244396</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04742332457569351</v>
+        <v>0.04738437067973992</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1193,19 +1193,19 @@
         <v>7897</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3120</v>
+        <v>3746</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15868</v>
+        <v>16626</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0472745848548064</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01867907750192335</v>
+        <v>0.02242509818440714</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09500060605927678</v>
+        <v>0.09953445625253592</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1214,19 +1214,19 @@
         <v>13720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7815</v>
+        <v>7689</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23732</v>
+        <v>24082</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03231434271956581</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01840753694388086</v>
+        <v>0.01811036050762152</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05589744511387577</v>
+        <v>0.0567210710666121</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>8983</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3933</v>
+        <v>3943</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19704</v>
+        <v>17853</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03488075903639777</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0152720562823796</v>
+        <v>0.0153122294837392</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07651274193101269</v>
+        <v>0.06932382097855348</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1264,19 +1264,19 @@
         <v>5082</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1952</v>
+        <v>1994</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11630</v>
+        <v>12013</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03042568424044425</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01168434822757196</v>
+        <v>0.01193978434241724</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06962605620145031</v>
+        <v>0.07192118826929965</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -1285,19 +1285,19 @@
         <v>14065</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7049</v>
+        <v>7935</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>23210</v>
+        <v>24706</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03312802011545857</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01660243860260696</v>
+        <v>0.01869041366554457</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05466653620754153</v>
+        <v>0.05819137571379633</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>34930</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24680</v>
+        <v>25139</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48292</v>
+        <v>48559</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1356336546377732</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09583445890725335</v>
+        <v>0.09761495609572042</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1875167092436472</v>
+        <v>0.1885562080921404</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>36</v>
@@ -1335,19 +1335,19 @@
         <v>39629</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>29053</v>
+        <v>30224</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>51568</v>
+        <v>52036</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2372500890041336</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1739341706172091</v>
+        <v>0.180945101012343</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3087235282760143</v>
+        <v>0.311529540898963</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>69</v>
@@ -1356,19 +1356,19 @@
         <v>74559</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>58559</v>
+        <v>59284</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>91680</v>
+        <v>92836</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1756121258595709</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1379261014294861</v>
+        <v>0.1396342747119662</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2159368152898748</v>
+        <v>0.2186612187006098</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>66004</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51654</v>
+        <v>52767</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80735</v>
+        <v>83352</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2562928669882323</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2005720692417451</v>
+        <v>0.2048966359278569</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.313496033754849</v>
+        <v>0.3236550302047834</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -1406,19 +1406,19 @@
         <v>44771</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33609</v>
+        <v>32957</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57329</v>
+        <v>57474</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2680332941416721</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2012074094229463</v>
+        <v>0.1973059271962196</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3432154997704698</v>
+        <v>0.3440861065856954</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -1427,19 +1427,19 @@
         <v>110775</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>93033</v>
+        <v>91714</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>132877</v>
+        <v>130116</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2609118474908663</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2191245474076876</v>
+        <v>0.2160188534508928</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3129703634545702</v>
+        <v>0.3064664694196008</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>141792</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>125846</v>
+        <v>124934</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>159866</v>
+        <v>159283</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5505816111047401</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4886622385529699</v>
+        <v>0.4851193477471762</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6207599655542577</v>
+        <v>0.6184995575323251</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -1477,19 +1477,19 @@
         <v>69656</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>56122</v>
+        <v>55901</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>84078</v>
+        <v>82435</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4170163477589436</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3359868327818586</v>
+        <v>0.3346644159917716</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5033563503295859</v>
+        <v>0.4935198867460519</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>188</v>
@@ -1498,19 +1498,19 @@
         <v>211449</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>187270</v>
+        <v>189180</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>234184</v>
+        <v>233498</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4980336638145385</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4410839199410435</v>
+        <v>0.4455831676547518</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5515824296551873</v>
+        <v>0.5499666697685023</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>10811</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5385</v>
+        <v>5551</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18680</v>
+        <v>19340</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03867323178375053</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0192652946613895</v>
+        <v>0.01985889162854636</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06682364509865621</v>
+        <v>0.06918604047316476</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6069</v>
+        <v>7186</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01837159610023398</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05594471124344945</v>
+        <v>0.06623576822353155</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1644,19 +1644,19 @@
         <v>12804</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6822</v>
+        <v>6760</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21238</v>
+        <v>21570</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03299698152145263</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01758082343851537</v>
+        <v>0.01742148180507519</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05473257926572896</v>
+        <v>0.05558898282987168</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>8541</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3952</v>
+        <v>3233</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17432</v>
+        <v>16789</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03055249453332287</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01413764768510019</v>
+        <v>0.01156479587362807</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06236017806888702</v>
+        <v>0.06005919557165459</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1694,19 +1694,19 @@
         <v>4243</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10015</v>
+        <v>10430</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03910609107981135</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.009807751388033855</v>
+        <v>0.009673344947086202</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09231363274434704</v>
+        <v>0.09614056716611989</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1715,19 +1715,19 @@
         <v>12783</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6531</v>
+        <v>7176</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22635</v>
+        <v>23789</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0329440434408829</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01683206022774639</v>
+        <v>0.01849447096517391</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05833259152208808</v>
+        <v>0.06130823285524083</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>45605</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>34638</v>
+        <v>34046</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>59853</v>
+        <v>58939</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1631466493927967</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1239136008456201</v>
+        <v>0.1217960632672292</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2141156036835939</v>
+        <v>0.2108465687895669</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -1765,19 +1765,19 @@
         <v>11004</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5933</v>
+        <v>5945</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19402</v>
+        <v>20427</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.101424399601759</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05468533269764779</v>
+        <v>0.05479390354108864</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1788339227847403</v>
+        <v>0.1882832987182289</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>55</v>
@@ -1786,19 +1786,19 @@
         <v>56609</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>42922</v>
+        <v>44052</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>71576</v>
+        <v>73833</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1458893730812897</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1106170359933902</v>
+        <v>0.1135277566519298</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1844620105571866</v>
+        <v>0.1902773723136793</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>64613</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52696</v>
+        <v>50727</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79825</v>
+        <v>80196</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2311436587095005</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1885137009561706</v>
+        <v>0.1814668758207708</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2855634344079556</v>
+        <v>0.2868909397496698</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1836,19 +1836,19 @@
         <v>16154</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9386</v>
+        <v>9745</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25462</v>
+        <v>24281</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.148897596864653</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08651845619726238</v>
+        <v>0.08982227614073879</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2346960751782118</v>
+        <v>0.2238053737792721</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>81</v>
@@ -1857,19 +1857,19 @@
         <v>80767</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66960</v>
+        <v>65710</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>98506</v>
+        <v>98044</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2081480125754882</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1725640517774047</v>
+        <v>0.1693444106743273</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2538637684493784</v>
+        <v>0.2526718862982931</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>149967</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>132835</v>
+        <v>131811</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>166145</v>
+        <v>167180</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5364839655806294</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4751992021162094</v>
+        <v>0.4715350935460518</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5943590194033072</v>
+        <v>0.5980613727429686</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>72</v>
@@ -1907,19 +1907,19 @@
         <v>75098</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>63613</v>
+        <v>64646</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>84341</v>
+        <v>83947</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6922003163535427</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5863425062053795</v>
+        <v>0.5958688555295344</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7774005134529532</v>
+        <v>0.7737689245406634</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>217</v>
@@ -1928,19 +1928,19 @@
         <v>225064</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>205759</v>
+        <v>205166</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>244178</v>
+        <v>245040</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5800215893808867</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5302702278673387</v>
+        <v>0.5287410626959401</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.629280189449032</v>
+        <v>0.631501292795661</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>19157</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11612</v>
+        <v>12012</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30361</v>
+        <v>29307</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04539038004336805</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0275128147005641</v>
+        <v>0.02846177112190194</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07193578570733881</v>
+        <v>0.06943994713953099</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2053,19 +2053,19 @@
         <v>14293</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8068</v>
+        <v>8302</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23340</v>
+        <v>24185</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04796242232903406</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02707462967486789</v>
+        <v>0.02785720925175718</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0783203148012953</v>
+        <v>0.08115773669958773</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>31</v>
@@ -2074,19 +2074,19 @@
         <v>33450</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22830</v>
+        <v>23908</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>45855</v>
+        <v>47518</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04645484699628914</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03170541888267971</v>
+        <v>0.03320308038152588</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06368305588421848</v>
+        <v>0.06599258040159442</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>28074</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>18537</v>
+        <v>19184</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>39779</v>
+        <v>41112</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06651794219897</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04392060106965957</v>
+        <v>0.04545301051575901</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09425257941280711</v>
+        <v>0.09740965479345133</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -2124,19 +2124,19 @@
         <v>14635</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7914</v>
+        <v>7935</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>23513</v>
+        <v>23665</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04911085850722125</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02655804896057074</v>
+        <v>0.0266258955175486</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07890176352490037</v>
+        <v>0.07941204784479419</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>39</v>
@@ -2145,19 +2145,19 @@
         <v>42709</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>31091</v>
+        <v>31325</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>57473</v>
+        <v>57582</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0593138361701299</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04317929503526701</v>
+        <v>0.0435040326969236</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07981830603188111</v>
+        <v>0.07996896248544234</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>83509</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>66996</v>
+        <v>69048</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>101851</v>
+        <v>104102</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1978649749861596</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1587381272174125</v>
+        <v>0.1635995425947849</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2413240562314836</v>
+        <v>0.2466563163170028</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>53</v>
@@ -2195,19 +2195,19 @@
         <v>56095</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>43990</v>
+        <v>43286</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>69961</v>
+        <v>70765</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1882354072789344</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1476150337722143</v>
+        <v>0.1452536660237946</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2347665415226357</v>
+        <v>0.2374644293450504</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>131</v>
@@ -2216,19 +2216,19 @@
         <v>139604</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>116536</v>
+        <v>118867</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>161014</v>
+        <v>162292</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1938796763569798</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.161844014657225</v>
+        <v>0.1650807931146584</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2236140946090624</v>
+        <v>0.2253893227805621</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>101004</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>84687</v>
+        <v>83870</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>119060</v>
+        <v>118525</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2393154170202545</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2006545244053784</v>
+        <v>0.1987207138490542</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2820970379572685</v>
+        <v>0.2808293446087087</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>89</v>
@@ -2266,19 +2266,19 @@
         <v>93635</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>77932</v>
+        <v>78555</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>110375</v>
+        <v>112030</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3142083315034682</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2615146416526045</v>
+        <v>0.2636046784546363</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3703848125856474</v>
+        <v>0.3759361669159711</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>186</v>
@@ -2287,19 +2287,19 @@
         <v>194638</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>171702</v>
+        <v>171751</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>219816</v>
+        <v>219848</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.270310643233918</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2384565622562334</v>
+        <v>0.2385252963100345</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.305277370974214</v>
+        <v>0.3053219439861976</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>190308</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>167086</v>
+        <v>169969</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>211371</v>
+        <v>212270</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4509112857512478</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3958895878513499</v>
+        <v>0.4027213749421844</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5008169384876421</v>
+        <v>0.5029475073693842</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>112</v>
@@ -2337,19 +2337,19 @@
         <v>119345</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>103096</v>
+        <v>102484</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>138009</v>
+        <v>136371</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4004829803813421</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3459561900776164</v>
+        <v>0.3439029786552101</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4631147835791413</v>
+        <v>0.4576185976501712</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>291</v>
@@ -2358,19 +2358,19 @@
         <v>309653</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>282145</v>
+        <v>283555</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>336060</v>
+        <v>340274</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4300409972426832</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3918392403390473</v>
+        <v>0.3937969227842293</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4667147159951613</v>
+        <v>0.4725679656136052</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>19945</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13571</v>
+        <v>13026</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>29474</v>
+        <v>28213</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1321818133525545</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08994158806135778</v>
+        <v>0.08632687658652637</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1953374768061205</v>
+        <v>0.1869840402939009</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -2483,19 +2483,19 @@
         <v>16651</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9212</v>
+        <v>9971</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>26262</v>
+        <v>26083</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09639616603006307</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05332993639937882</v>
+        <v>0.05772673152344895</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1520364905788144</v>
+        <v>0.1510026773071627</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>35</v>
@@ -2504,19 +2504,19 @@
         <v>36595</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>26054</v>
+        <v>26240</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>49220</v>
+        <v>49378</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1130811371814428</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08050760463196675</v>
+        <v>0.0810815924778064</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1520914928230676</v>
+        <v>0.1525821334162265</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>14819</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8613</v>
+        <v>8369</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>24839</v>
+        <v>23627</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09821533341743424</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05708030922599935</v>
+        <v>0.05546218576760789</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1646176655433704</v>
+        <v>0.1565890203513293</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -2554,19 +2554,19 @@
         <v>12695</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7053</v>
+        <v>6358</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20969</v>
+        <v>20342</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07349561052793731</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04083272331234819</v>
+        <v>0.03680584209887439</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1213935855080898</v>
+        <v>0.1177685092848038</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>25</v>
@@ -2575,19 +2575,19 @@
         <v>27514</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18818</v>
+        <v>19148</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>40216</v>
+        <v>39567</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0850211212882843</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05814754522920729</v>
+        <v>0.05916861608940258</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1242682312870663</v>
+        <v>0.122264559384537</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>34539</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>24183</v>
+        <v>25025</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>45426</v>
+        <v>46442</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2289038151651114</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1602739680089113</v>
+        <v>0.1658557399212557</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3010609599178855</v>
+        <v>0.307791268185891</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>39</v>
@@ -2625,19 +2625,19 @@
         <v>44243</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>33199</v>
+        <v>32783</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>56820</v>
+        <v>56343</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2561377170577429</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1921969947456354</v>
+        <v>0.1897939316815026</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3289500465728056</v>
+        <v>0.3261898764541206</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>71</v>
@@ -2646,19 +2646,19 @@
         <v>78782</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>62820</v>
+        <v>62883</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>94942</v>
+        <v>96186</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2434399764433801</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1941167724174794</v>
+        <v>0.1943131568385585</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2933748173980557</v>
+        <v>0.29721911506554</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>39826</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>30369</v>
+        <v>29514</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>51411</v>
+        <v>51905</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.263943231769853</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2012716915217861</v>
+        <v>0.1956053694218888</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3407226035444609</v>
+        <v>0.3439966736544142</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>41</v>
@@ -2696,19 +2696,19 @@
         <v>44181</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>33427</v>
+        <v>32744</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>57068</v>
+        <v>57089</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2557775114881308</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1935175640042536</v>
+        <v>0.18956336210721</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3303867741861821</v>
+        <v>0.3305056972056095</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>78</v>
@@ -2717,19 +2717,19 @@
         <v>84007</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>69641</v>
+        <v>68095</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>102753</v>
+        <v>99866</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2595847587373692</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2151940030305403</v>
+        <v>0.2104181747772913</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3175131314440507</v>
+        <v>0.3085902913277747</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>41759</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>31698</v>
+        <v>30684</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>53846</v>
+        <v>54112</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2767558062950468</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2100751618246382</v>
+        <v>0.2033600725049839</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3568639491558628</v>
+        <v>0.3586236906584153</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>50</v>
@@ -2767,19 +2767,19 @@
         <v>54962</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>42715</v>
+        <v>42858</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>68581</v>
+        <v>68728</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3181929948961259</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2472882230286778</v>
+        <v>0.2481161528453466</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3970347575048525</v>
+        <v>0.3978860392209568</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>90</v>
@@ -2788,19 +2788,19 @@
         <v>96721</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>79815</v>
+        <v>79556</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>114191</v>
+        <v>113680</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2988730063495236</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.246633210222188</v>
+        <v>0.2458316496487553</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3528574638503256</v>
+        <v>0.3512772101764921</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>59544</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>45805</v>
+        <v>43917</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>76755</v>
+        <v>74504</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04214593225199854</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03242120473509977</v>
+        <v>0.03108478549555971</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05432792640356501</v>
+        <v>0.05273448883484646</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>40</v>
@@ -2913,19 +2913,19 @@
         <v>42872</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>31055</v>
+        <v>29934</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>56474</v>
+        <v>56204</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0456722001724774</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03308330325463742</v>
+        <v>0.03188895732820278</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06016319102477785</v>
+        <v>0.05987516727727318</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>97</v>
@@ -2934,19 +2934,19 @@
         <v>102416</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>82728</v>
+        <v>84548</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>122823</v>
+        <v>124931</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04355356825923442</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03518108198650137</v>
+        <v>0.03595517616549365</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05223179578673629</v>
+        <v>0.05312854277568423</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>65341</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>51677</v>
+        <v>49978</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>84254</v>
+        <v>82146</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04624920202710035</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03657782414442055</v>
+        <v>0.03537505920197731</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05963547171161323</v>
+        <v>0.05814361279703703</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>36</v>
@@ -2984,19 +2984,19 @@
         <v>39618</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>27816</v>
+        <v>27208</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>54497</v>
+        <v>53915</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04220635549658056</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02963351919838718</v>
+        <v>0.02898549833738195</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05805683876546517</v>
+        <v>0.05743726974650265</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>95</v>
@@ -3005,19 +3005,19 @@
         <v>104960</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>86284</v>
+        <v>85851</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>128354</v>
+        <v>127349</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04463535518493656</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03669321728823074</v>
+        <v>0.03650933254404815</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05458401771700835</v>
+        <v>0.0541568148258594</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>223367</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>194680</v>
+        <v>195800</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>251778</v>
+        <v>254261</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1581013716267156</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1377963327135525</v>
+        <v>0.1385891016792144</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1782108413011815</v>
+        <v>0.1799681361293123</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>150</v>
@@ -3055,19 +3055,19 @@
         <v>163052</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>141674</v>
+        <v>140631</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>187308</v>
+        <v>191377</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1737033500690693</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1509284908938776</v>
+        <v>0.1498180324045783</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1995436414274676</v>
+        <v>0.2038789711611151</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>360</v>
@@ -3076,19 +3076,19 @@
         <v>386419</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>348347</v>
+        <v>348836</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>424840</v>
+        <v>422390</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1643294595471004</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1481389102971087</v>
+        <v>0.1483466298535792</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1806682388081405</v>
+        <v>0.1796264064243777</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>334092</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>302031</v>
+        <v>302026</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>364026</v>
+        <v>367921</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2364736734765893</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.213780672435791</v>
+        <v>0.2137767780443302</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2576610035882569</v>
+        <v>0.2604180273484743</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>222</v>
@@ -3126,19 +3126,19 @@
         <v>242905</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>217536</v>
+        <v>215177</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>271013</v>
+        <v>273660</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2587724330366844</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2317465401363973</v>
+        <v>0.2292329917721905</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2887164010526757</v>
+        <v>0.291536821177762</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>546</v>
@@ -3147,19 +3147,19 @@
         <v>576997</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>532853</v>
+        <v>536855</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>623323</v>
+        <v>620733</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2453750211850818</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.226602178871149</v>
+        <v>0.2283040255061264</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2650756793274454</v>
+        <v>0.2639744500893569</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>730464</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>690306</v>
+        <v>695411</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>768949</v>
+        <v>772224</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5170298206175963</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4886051632937198</v>
+        <v>0.492218759522106</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5442693158856249</v>
+        <v>0.5465876577545774</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>419</v>
@@ -3197,19 +3197,19 @@
         <v>450234</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>418695</v>
+        <v>418557</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>481850</v>
+        <v>482222</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4796456612251884</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4460462010752065</v>
+        <v>0.4458995218861467</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5133261556250407</v>
+        <v>0.5137229986930874</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1095</v>
@@ -3218,19 +3218,19 @@
         <v>1180699</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1127028</v>
+        <v>1129208</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1228916</v>
+        <v>1227525</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5021065958236468</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4792824315903522</v>
+        <v>0.4802097209890421</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5226116009923738</v>
+        <v>0.522020266490689</v>
       </c>
     </row>
     <row r="39">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5935</v>
+        <v>4501</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003253533648586839</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02149977041539893</v>
+        <v>0.01630395418223067</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4732</v>
+        <v>5357</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004331241385848074</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02209254097723614</v>
+        <v>0.02501426598646209</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6369</v>
+        <v>6379</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003724371416907506</v>
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01299193101518784</v>
+        <v>0.01301251795155857</v>
       </c>
     </row>
     <row r="5">
@@ -3634,19 +3634,19 @@
         <v>14312</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7681</v>
+        <v>8258</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23314</v>
+        <v>24358</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05184500117886635</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02782454327254376</v>
+        <v>0.02991631710893155</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08445317707058753</v>
+        <v>0.08823701890441564</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -3655,19 +3655,19 @@
         <v>10998</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5717</v>
+        <v>5975</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18218</v>
+        <v>18835</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05134986533914276</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02669468261460189</v>
+        <v>0.02789592210585042</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08506372533628179</v>
+        <v>0.08794042334245297</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -3676,19 +3676,19 @@
         <v>25310</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16942</v>
+        <v>16128</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37798</v>
+        <v>36750</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05162868218464304</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03455907067442777</v>
+        <v>0.03290000809268215</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0771033218305944</v>
+        <v>0.07496618871182559</v>
       </c>
     </row>
     <row r="6">
@@ -3705,19 +3705,19 @@
         <v>36164</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25279</v>
+        <v>24670</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50726</v>
+        <v>48506</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1310048972788342</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09157129236214973</v>
+        <v>0.08936718046936669</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1837538312210321</v>
+        <v>0.1757143543295231</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -3726,19 +3726,19 @@
         <v>34198</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24677</v>
+        <v>24052</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45647</v>
+        <v>46295</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1596727149322311</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1152198058802166</v>
+        <v>0.1122999457132718</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2131303249249668</v>
+        <v>0.216153762782842</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>65</v>
@@ -3747,19 +3747,19 @@
         <v>70362</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>55306</v>
+        <v>55132</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>88239</v>
+        <v>88714</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1435295278626799</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1128180704231554</v>
+        <v>0.1124617043658712</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1799964540806506</v>
+        <v>0.1809648741202629</v>
       </c>
     </row>
     <row r="7">
@@ -3776,19 +3776,19 @@
         <v>61976</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47683</v>
+        <v>47276</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76609</v>
+        <v>77475</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2245089580211866</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1727319078075228</v>
+        <v>0.1712583495106274</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2775140951533917</v>
+        <v>0.2806525875626967</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -3797,19 +3797,19 @@
         <v>44455</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34083</v>
+        <v>34445</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56973</v>
+        <v>56917</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2075648475119003</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1591390884050093</v>
+        <v>0.1608262471996763</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2660148205741603</v>
+        <v>0.2657506929331143</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -3818,19 +3818,19 @@
         <v>106431</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>87725</v>
+        <v>90132</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>125676</v>
+        <v>127790</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2171062764754038</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1789468533912882</v>
+        <v>0.1838579648922245</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2563638188463582</v>
+        <v>0.2606750194575861</v>
       </c>
     </row>
     <row r="8">
@@ -3847,19 +3847,19 @@
         <v>162702</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>146434</v>
+        <v>144642</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>179028</v>
+        <v>178822</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5893876098725259</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5304545729572393</v>
+        <v>0.5239654304305458</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6485262234838939</v>
+        <v>0.6477799861335796</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>118</v>
@@ -3868,19 +3868,19 @@
         <v>123596</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>109469</v>
+        <v>107475</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>137536</v>
+        <v>136801</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5770813308308778</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5111229401253985</v>
+        <v>0.5018116077401883</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6421671895461623</v>
+        <v>0.6387357245322118</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>267</v>
@@ -3889,19 +3889,19 @@
         <v>286298</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>264601</v>
+        <v>262814</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>308127</v>
+        <v>305794</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5840111420603658</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5397523751493869</v>
+        <v>0.5361064440524165</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6285386567973922</v>
+        <v>0.6237803819842209</v>
       </c>
     </row>
     <row r="9">
@@ -3993,19 +3993,19 @@
         <v>8165</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4058</v>
+        <v>4011</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15867</v>
+        <v>15811</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0335683523959071</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01668133749645004</v>
+        <v>0.01649210772298876</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06523415178748222</v>
+        <v>0.06500046153713172</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -4014,19 +4014,19 @@
         <v>12179</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6345</v>
+        <v>6261</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21208</v>
+        <v>20292</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06438037116138151</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03354081992511856</v>
+        <v>0.03309843552674783</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1121058593882174</v>
+        <v>0.107266320345302</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -4035,19 +4035,19 @@
         <v>20344</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12881</v>
+        <v>13354</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30567</v>
+        <v>31085</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04704828426412</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02978879061023721</v>
+        <v>0.03088261360165443</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07068871787179466</v>
+        <v>0.07188622466848525</v>
       </c>
     </row>
     <row r="11">
@@ -4064,19 +4064,19 @@
         <v>11145</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5822</v>
+        <v>5404</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20448</v>
+        <v>19137</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04582110137996824</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02393433016564687</v>
+        <v>0.02221777342508437</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08406726315287717</v>
+        <v>0.07867798234722516</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -4085,19 +4085,19 @@
         <v>18252</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11188</v>
+        <v>11691</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27747</v>
+        <v>28234</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09648202435900126</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05913899923350108</v>
+        <v>0.06179838424783988</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1466710476413719</v>
+        <v>0.1492471170296929</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>29</v>
@@ -4106,19 +4106,19 @@
         <v>29397</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19341</v>
+        <v>20565</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42395</v>
+        <v>40847</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06798471861440139</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0447277227163539</v>
+        <v>0.04755884452287872</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09804288567605725</v>
+        <v>0.09446304130990121</v>
       </c>
     </row>
     <row r="12">
@@ -4135,19 +4135,19 @@
         <v>58069</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43902</v>
+        <v>45016</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>73892</v>
+        <v>73168</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.238735582414209</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1804902101610268</v>
+        <v>0.1850692585821608</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3037858136060644</v>
+        <v>0.3008084272596295</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>47</v>
@@ -4156,19 +4156,19 @@
         <v>48834</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36621</v>
+        <v>37704</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>62281</v>
+        <v>60932</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2581383790586407</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1935799785402136</v>
+        <v>0.1993068059850243</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.329223145973644</v>
+        <v>0.3220924095367203</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>98</v>
@@ -4177,19 +4177,19 @@
         <v>106903</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>89296</v>
+        <v>89636</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>127015</v>
+        <v>124728</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2472241004438294</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2065064467292645</v>
+        <v>0.2072935888258292</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2937364482069296</v>
+        <v>0.2884457397148673</v>
       </c>
     </row>
     <row r="13">
@@ -4206,19 +4206,19 @@
         <v>74898</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59782</v>
+        <v>60151</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90109</v>
+        <v>91133</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3079201911416654</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2457787746305012</v>
+        <v>0.2472933027238509</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3704566489739033</v>
+        <v>0.3746688785065685</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -4227,19 +4227,19 @@
         <v>48550</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36945</v>
+        <v>37153</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61350</v>
+        <v>62346</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2566389480753451</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1952946481319655</v>
+        <v>0.196395103596239</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3243030728453408</v>
+        <v>0.3295649829593197</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -4248,19 +4248,19 @@
         <v>123448</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>105447</v>
+        <v>103521</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>143250</v>
+        <v>142646</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2854851904390874</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2438570799476429</v>
+        <v>0.23940231227692</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.331281137938588</v>
+        <v>0.3298839822727201</v>
       </c>
     </row>
     <row r="14">
@@ -4277,19 +4277,19 @@
         <v>90960</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>74378</v>
+        <v>76059</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>108089</v>
+        <v>108163</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3739547726682503</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3057825740978398</v>
+        <v>0.3126950615634583</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4443766478995109</v>
+        <v>0.4446799869665429</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -4298,19 +4298,19 @@
         <v>61361</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47902</v>
+        <v>48448</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76123</v>
+        <v>74545</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3243602773456314</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2532147439958614</v>
+        <v>0.2561000589114046</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4023935740853977</v>
+        <v>0.3940512814468364</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>142</v>
@@ -4319,19 +4319,19 @@
         <v>152321</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>131552</v>
+        <v>134330</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>172757</v>
+        <v>175909</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3522577062385618</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3042285884457859</v>
+        <v>0.3106528689503897</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3995194732909702</v>
+        <v>0.406806883886736</v>
       </c>
     </row>
     <row r="15">
@@ -4423,19 +4423,19 @@
         <v>5008</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1269</v>
+        <v>1236</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11983</v>
+        <v>12193</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02315240385899987</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005866748583062412</v>
+        <v>0.005715428753283367</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05539339601917021</v>
+        <v>0.05636460492135156</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4457,19 +4457,19 @@
         <v>5008</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1248</v>
+        <v>1255</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11595</v>
+        <v>12490</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01779560000552806</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00443412431693306</v>
+        <v>0.00445989077821843</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04119675297540094</v>
+        <v>0.04437869714292791</v>
       </c>
     </row>
     <row r="17">
@@ -4486,19 +4486,19 @@
         <v>15770</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9402</v>
+        <v>8807</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24630</v>
+        <v>24152</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07289789669361167</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04346342516107199</v>
+        <v>0.04071325518672921</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1138575911919504</v>
+        <v>0.1116487849191477</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -4520,19 +4520,19 @@
         <v>15770</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9171</v>
+        <v>9273</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25031</v>
+        <v>24829</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05603140903658454</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03258411988508055</v>
+        <v>0.032948079933683</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08893742498976945</v>
+        <v>0.08821899043072849</v>
       </c>
     </row>
     <row r="18">
@@ -4549,19 +4549,19 @@
         <v>44366</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>34196</v>
+        <v>34217</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>60342</v>
+        <v>58412</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2050892842315614</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1580768984961352</v>
+        <v>0.1581733919633459</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2789412004980656</v>
+        <v>0.2700206152206629</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -4570,19 +4570,19 @@
         <v>8200</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3706</v>
+        <v>4019</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14730</v>
+        <v>14855</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1259321269045108</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05690509967048411</v>
+        <v>0.06171370153788184</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2262013193526746</v>
+        <v>0.2281204324805266</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>51</v>
@@ -4591,19 +4591,19 @@
         <v>52566</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>39342</v>
+        <v>40901</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>66337</v>
+        <v>67797</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1867745827438976</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.139788286409491</v>
+        <v>0.1453244738353139</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2357033351847761</v>
+        <v>0.2408900239916027</v>
       </c>
     </row>
     <row r="19">
@@ -4620,19 +4620,19 @@
         <v>66179</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53643</v>
+        <v>53246</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81031</v>
+        <v>82146</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3059233983565744</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2479730869080674</v>
+        <v>0.2461394862094659</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3745818818934533</v>
+        <v>0.3797318933462113</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -4641,19 +4641,19 @@
         <v>22151</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14420</v>
+        <v>15306</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29410</v>
+        <v>30959</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3401722006474281</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2214395665011361</v>
+        <v>0.2350455001663357</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4516375770509622</v>
+        <v>0.4754318102140656</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>86</v>
@@ -4662,19 +4662,19 @@
         <v>88330</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>73580</v>
+        <v>73353</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>105909</v>
+        <v>103775</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3138475913347961</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2614369520296053</v>
+        <v>0.2606309588365655</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.376306070994142</v>
+        <v>0.3687242400357494</v>
       </c>
     </row>
     <row r="20">
@@ -4691,19 +4691,19 @@
         <v>85002</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>70433</v>
+        <v>69681</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>99714</v>
+        <v>100413</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3929370168592525</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3255879781600448</v>
+        <v>0.3221111543939698</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4609467521815259</v>
+        <v>0.4641787232584952</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -4712,19 +4712,19 @@
         <v>34766</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27063</v>
+        <v>26225</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43334</v>
+        <v>42244</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5338956724480611</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4156009577953562</v>
+        <v>0.4027294098135195</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6654611970539064</v>
+        <v>0.648723685356925</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>111</v>
@@ -4733,19 +4733,19 @@
         <v>119768</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>102348</v>
+        <v>103293</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>138167</v>
+        <v>136461</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4255508168791937</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.363653608134927</v>
+        <v>0.3670130214803987</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4909229955310201</v>
+        <v>0.4848632062384021</v>
       </c>
     </row>
     <row r="21">
@@ -4837,19 +4837,19 @@
         <v>37419</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25746</v>
+        <v>26221</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50842</v>
+        <v>52138</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07672490419522081</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05278963069082279</v>
+        <v>0.05376546618943609</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1042491787183266</v>
+        <v>0.1069054775362723</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -4858,19 +4858,19 @@
         <v>23293</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14295</v>
+        <v>15544</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34016</v>
+        <v>33651</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06382716510619318</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03917056048421289</v>
+        <v>0.04259382715871215</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09320967221560017</v>
+        <v>0.09220965907719665</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -4879,19 +4879,19 @@
         <v>60712</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46649</v>
+        <v>45265</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77738</v>
+        <v>76889</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07120451019774894</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05471076262485545</v>
+        <v>0.0530882257576095</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09117290460417066</v>
+        <v>0.09017771313789658</v>
       </c>
     </row>
     <row r="23">
@@ -4908,19 +4908,19 @@
         <v>45704</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>34394</v>
+        <v>34724</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>60720</v>
+        <v>60701</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09371219944415329</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07052259807426094</v>
+        <v>0.07120015921512907</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1245023512627426</v>
+        <v>0.1244644125320465</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>47</v>
@@ -4929,19 +4929,19 @@
         <v>45626</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>34721</v>
+        <v>33260</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>58902</v>
+        <v>58097</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1250212482341467</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09514191935140376</v>
+        <v>0.09113743447680414</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1614006143988363</v>
+        <v>0.1591962227696126</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>91</v>
@@ -4950,19 +4950,19 @@
         <v>91329</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>75402</v>
+        <v>75724</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>110090</v>
+        <v>110385</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1071128647711384</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08843287994145449</v>
+        <v>0.08881103493918914</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1291165319611992</v>
+        <v>0.1294625342385382</v>
       </c>
     </row>
     <row r="24">
@@ -4979,19 +4979,19 @@
         <v>116298</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>97227</v>
+        <v>98829</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>137593</v>
+        <v>137201</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2384611510855511</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1993578976974207</v>
+        <v>0.2026429529036566</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2821252522839108</v>
+        <v>0.2813218868862197</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>83</v>
@@ -5000,19 +5000,19 @@
         <v>81665</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>66361</v>
+        <v>65789</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>98892</v>
+        <v>96564</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2237744661606514</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1818405240948747</v>
+        <v>0.1802731654892577</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2709793933524933</v>
+        <v>0.2646015444090346</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>192</v>
@@ -5021,19 +5021,19 @@
         <v>197962</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>174157</v>
+        <v>174932</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>224108</v>
+        <v>225371</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2321750658466932</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2042552295159223</v>
+        <v>0.2051647985488725</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2628397016988189</v>
+        <v>0.2643213099508778</v>
       </c>
     </row>
     <row r="25">
@@ -5050,19 +5050,19 @@
         <v>152608</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>130525</v>
+        <v>131397</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>171766</v>
+        <v>172357</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3129122371543864</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2676323688874385</v>
+        <v>0.2694218226272965</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3521950972073358</v>
+        <v>0.3534066205997837</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>109</v>
@@ -5071,19 +5071,19 @@
         <v>110884</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>93866</v>
+        <v>94657</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>128559</v>
+        <v>128377</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3038408914311664</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2572067449006105</v>
+        <v>0.2593761886683369</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3522729909379987</v>
+        <v>0.3517727630756975</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>256</v>
@@ -5092,19 +5092,19 @@
         <v>263492</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>236911</v>
+        <v>235446</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>289012</v>
+        <v>288066</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3090295874796029</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.277855313445479</v>
+        <v>0.2761372914932058</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3389609457135374</v>
+        <v>0.3378513573049217</v>
       </c>
     </row>
     <row r="26">
@@ -5121,19 +5121,19 @@
         <v>135673</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>117176</v>
+        <v>116161</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>157565</v>
+        <v>155009</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2781895081206884</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2402623775263368</v>
+        <v>0.2381800207050767</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3230771116454286</v>
+        <v>0.3178357482124475</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>98</v>
@@ -5142,19 +5142,19 @@
         <v>103474</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>87780</v>
+        <v>86338</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>121571</v>
+        <v>120521</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2835362290678423</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2405301483677459</v>
+        <v>0.2365788378046625</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3331243839068634</v>
+        <v>0.3302471182137492</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>228</v>
@@ -5163,19 +5163,19 @@
         <v>239147</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>213673</v>
+        <v>213567</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>263839</v>
+        <v>268709</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2804779717048165</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2506013928344618</v>
+        <v>0.2504762359059061</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3094364904873048</v>
+        <v>0.3151490664726812</v>
       </c>
     </row>
     <row r="27">
@@ -5267,19 +5267,19 @@
         <v>16658</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9543</v>
+        <v>9795</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25888</v>
+        <v>26416</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08630062622775229</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04944200344511692</v>
+        <v>0.05074563852840661</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1341193735195406</v>
+        <v>0.1368563154850331</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>21</v>
@@ -5288,19 +5288,19 @@
         <v>21400</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>13508</v>
+        <v>13828</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>30083</v>
+        <v>31373</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1082872159600555</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06835281583744374</v>
+        <v>0.06997249866013874</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1522248995892393</v>
+        <v>0.1587555214487256</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>36</v>
@@ -5309,19 +5309,19 @@
         <v>38057</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>27040</v>
+        <v>27421</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>51394</v>
+        <v>52840</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09742329669270069</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06922030826768522</v>
+        <v>0.07019391643638656</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.131563902784658</v>
+        <v>0.135265546976993</v>
       </c>
     </row>
     <row r="29">
@@ -5338,19 +5338,19 @@
         <v>36796</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>26367</v>
+        <v>26633</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>48531</v>
+        <v>48111</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1906302530995028</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1366017688377031</v>
+        <v>0.1379783287705898</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2514271902266297</v>
+        <v>0.249253579313566</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>26</v>
@@ -5359,19 +5359,19 @@
         <v>26852</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>18555</v>
+        <v>18364</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>38351</v>
+        <v>38861</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1358780235106235</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09389319949492732</v>
+        <v>0.09292850490921074</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1940645071807971</v>
+        <v>0.1966468395779696</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>59</v>
@@ -5380,19 +5380,19 @@
         <v>63648</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>51389</v>
+        <v>49697</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>78500</v>
+        <v>78927</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1629319599875175</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1315520503261258</v>
+        <v>0.1272188779684752</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2009510325765883</v>
+        <v>0.2020454402788848</v>
       </c>
     </row>
     <row r="30">
@@ -5409,19 +5409,19 @@
         <v>51450</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>40679</v>
+        <v>39964</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>65227</v>
+        <v>64268</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2665476004139482</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.210749447916131</v>
+        <v>0.2070447560988637</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3379270821827408</v>
+        <v>0.3329585364343923</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>57</v>
@@ -5430,19 +5430,19 @@
         <v>56773</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>45135</v>
+        <v>44343</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>70570</v>
+        <v>69963</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2872864387489629</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2283921208629875</v>
+        <v>0.2243859796643902</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3571004144870765</v>
+        <v>0.3540274185860608</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>106</v>
@@ -5451,19 +5451,19 @@
         <v>108223</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>93168</v>
+        <v>92005</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>127008</v>
+        <v>125067</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2770390530418789</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2385005112398223</v>
+        <v>0.2355238746210322</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3251279856156795</v>
+        <v>0.3201597697355875</v>
       </c>
     </row>
     <row r="31">
@@ -5480,19 +5480,19 @@
         <v>35677</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>25762</v>
+        <v>26206</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>47756</v>
+        <v>48778</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1848339914729847</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1334683652396657</v>
+        <v>0.1357683049153726</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2474120134730315</v>
+        <v>0.252704968056324</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>49</v>
@@ -5501,19 +5501,19 @@
         <v>50869</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>39308</v>
+        <v>39138</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>63120</v>
+        <v>63866</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2574111013890661</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1989057166825261</v>
+        <v>0.1980465702662855</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3194015418123987</v>
+        <v>0.3231761498921195</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>82</v>
@@ -5522,19 +5522,19 @@
         <v>86546</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>70286</v>
+        <v>71143</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>104748</v>
+        <v>104798</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2215496116179716</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1799248715644785</v>
+        <v>0.1821198232167687</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2681439479417279</v>
+        <v>0.2682717831336814</v>
       </c>
     </row>
     <row r="32">
@@ -5551,19 +5551,19 @@
         <v>52442</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>38489</v>
+        <v>40139</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>65760</v>
+        <v>66508</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2716875287858119</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1994020163973647</v>
+        <v>0.2079487702199772</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3406851609533998</v>
+        <v>0.3445623768239769</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>39</v>
@@ -5572,19 +5572,19 @@
         <v>41725</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>31961</v>
+        <v>30250</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>55137</v>
+        <v>54923</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.211137220391292</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.161728843225743</v>
+        <v>0.1530700038126534</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2790053845123819</v>
+        <v>0.2779229170451579</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>85</v>
@@ -5593,19 +5593,19 @@
         <v>94166</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>78188</v>
+        <v>77574</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>112529</v>
+        <v>112874</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2410560786599313</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2001528407162132</v>
+        <v>0.1985822016654798</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2880630942391888</v>
+        <v>0.2889465365264744</v>
       </c>
     </row>
     <row r="33">
@@ -5697,19 +5697,19 @@
         <v>68148</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>51791</v>
+        <v>53466</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>85789</v>
+        <v>85992</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04811590241816793</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03656680326266835</v>
+        <v>0.03774966646577624</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06057128309883174</v>
+        <v>0.06071463975682508</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>56</v>
@@ -5718,19 +5718,19 @@
         <v>57800</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>44751</v>
+        <v>44271</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>74098</v>
+        <v>72553</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05606017128153745</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04340466329944132</v>
+        <v>0.04293911881474727</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07186844625511947</v>
+        <v>0.07036947268707547</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>117</v>
@@ -5739,19 +5739,19 @@
         <v>125948</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>105692</v>
+        <v>105780</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>151543</v>
+        <v>149823</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05146267222860836</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04318596802075723</v>
+        <v>0.04322216762503722</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06192068321603991</v>
+        <v>0.06121803703826447</v>
       </c>
     </row>
     <row r="35">
@@ -5768,19 +5768,19 @@
         <v>123726</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>102530</v>
+        <v>103541</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>146816</v>
+        <v>146214</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08735650300162234</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07239078677968859</v>
+        <v>0.07310503237738694</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1036592215770634</v>
+        <v>0.1032337091592823</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>103</v>
@@ -5789,19 +5789,19 @@
         <v>101727</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>84209</v>
+        <v>83230</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>120061</v>
+        <v>122027</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09866594612181896</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0816749408993792</v>
+        <v>0.08072501539085984</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1164480703868562</v>
+        <v>0.1183546132814794</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>218</v>
@@ -5810,19 +5810,19 @@
         <v>225454</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>198260</v>
+        <v>196119</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>253429</v>
+        <v>253897</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.09212095690651112</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08100953962582785</v>
+        <v>0.08013475928565941</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1035516474610457</v>
+        <v>0.1037430863060771</v>
       </c>
     </row>
     <row r="36">
@@ -5839,19 +5839,19 @@
         <v>306347</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>271069</v>
+        <v>274770</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>336374</v>
+        <v>339718</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2162950177698779</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.19138761734</v>
+        <v>0.1940003134900344</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2374955381300507</v>
+        <v>0.2398567325045624</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>230</v>
@@ -5860,19 +5860,19 @@
         <v>229670</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>203982</v>
+        <v>204497</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>256091</v>
+        <v>258673</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2227577660193636</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.197843237069639</v>
+        <v>0.1983421928553729</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2483836047439447</v>
+        <v>0.2508880321774132</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>512</v>
@@ -5881,19 +5881,19 @@
         <v>536016</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>496375</v>
+        <v>495459</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>578482</v>
+        <v>575850</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2190176510424735</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2028201278904958</v>
+        <v>0.202445785865443</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2363691190127551</v>
+        <v>0.2352940019959915</v>
       </c>
     </row>
     <row r="37">
@@ -5910,19 +5910,19 @@
         <v>391337</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>357291</v>
+        <v>354734</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>425307</v>
+        <v>426106</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2763023524901101</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2522643367380548</v>
+        <v>0.2504588157589692</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3002867117924989</v>
+        <v>0.3008504465104577</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>271</v>
@@ -5931,19 +5931,19 @@
         <v>276910</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>248590</v>
+        <v>249746</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>306400</v>
+        <v>305467</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2685761911175222</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2411082118791416</v>
+        <v>0.2422299858765398</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2971783977027686</v>
+        <v>0.2962736215087363</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>644</v>
@@ -5952,19 +5952,19 @@
         <v>668247</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>620658</v>
+        <v>623682</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>715032</v>
+        <v>712971</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2730474672291648</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2536023938767424</v>
+        <v>0.2548380264042382</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2921640938282237</v>
+        <v>0.2913217252325822</v>
       </c>
     </row>
     <row r="38">
@@ -5981,19 +5981,19 @@
         <v>526779</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>489634</v>
+        <v>490404</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>563585</v>
+        <v>564820</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3719302243202217</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3457045744039042</v>
+        <v>0.346247914454013</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3979169864618543</v>
+        <v>0.3987890790596141</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>347</v>
@@ -6002,19 +6002,19 @@
         <v>364922</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>334804</v>
+        <v>333902</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>397382</v>
+        <v>395742</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3539399254597578</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3247283107884043</v>
+        <v>0.3238532058014416</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3854223854627086</v>
+        <v>0.3838322860390762</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>833</v>
@@ -6023,19 +6023,19 @@
         <v>891701</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>848324</v>
+        <v>844545</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>950652</v>
+        <v>948153</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3643512525932422</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3466276099592884</v>
+        <v>0.3450833474896648</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3884390937404665</v>
+        <v>0.3874178658137128</v>
       </c>
     </row>
     <row r="39">
